--- a/data/trans_orig/P35-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9932BBA-B711-4D9B-AD0C-F55C6C140840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C2A44B4-CD02-4D61-992D-10E598320B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD517D17-9161-496C-B639-7E2A256CD1F3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43120902-3B10-47D3-8F52-A011F5E9E315}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -77,1837 +77,1831 @@
     <t>20,34%</t>
   </si>
   <si>
-    <t>15,65%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2015 (Tasa respuesta: 98,54%)</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>28,56%</t>
   </si>
   <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
   </si>
   <si>
     <t>71,44%</t>
   </si>
   <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>40,49%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>71,93%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,21%</t>
+  </si>
+  <si>
+    <t>69,6%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>33,9%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
   </si>
   <si>
     <t>37,41%</t>
   </si>
   <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
   <si>
     <t>62,59%</t>
   </si>
   <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>81,83%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>64,96%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>78,58%</t>
   </si>
   <si>
     <t>27,89%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
   </si>
   <si>
     <t>23,87%</t>
   </si>
   <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
   </si>
   <si>
     <t>76,13%</t>
   </si>
   <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2015 (Tasa respuesta: 98,54%)</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
     <t>70,81%</t>
   </si>
   <si>
-    <t>66,53%</t>
+    <t>74,45%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
   </si>
   <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
+    <t>19,57%</t>
   </si>
   <si>
     <t>22,86%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
   </si>
   <si>
     <t>76,45%</t>
   </si>
   <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
+    <t>80,43%</t>
   </si>
   <si>
     <t>77,14%</t>
   </si>
   <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
     <t>29,87%</t>
   </si>
   <si>
-    <t>36,11%</t>
+    <t>25,04%</t>
   </si>
   <si>
     <t>30,39%</t>
   </si>
   <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
+    <t>33,78%</t>
   </si>
   <si>
     <t>70,13%</t>
   </si>
   <si>
-    <t>63,89%</t>
+    <t>74,96%</t>
   </si>
   <si>
     <t>69,61%</t>
   </si>
   <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
+    <t>66,22%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
   </si>
   <si>
     <t>30,08%</t>
   </si>
   <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>30,45%</t>
   </si>
   <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
   </si>
   <si>
     <t>69,92%</t>
   </si>
   <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>69,55%</t>
   </si>
   <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
     <t>24,39%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
+    <t>21,03%</t>
   </si>
   <si>
     <t>28,85%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
   </si>
   <si>
     <t>26,89%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>75,61%</t>
   </si>
   <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>78,97%</t>
   </si>
   <si>
     <t>71,15%</t>
   </si>
   <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
   </si>
   <si>
     <t>56,85%</t>
   </si>
   <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
+    <t>45,44%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>68,75%</t>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
   </si>
   <si>
     <t>61,28%</t>
   </si>
   <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
   </si>
   <si>
     <t>43,15%</t>
   </si>
   <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
+    <t>54,56%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>31,25%</t>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
   </si>
   <si>
     <t>38,72%</t>
   </si>
   <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>37,09%</t>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>37,38%</t>
   </si>
   <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
   </si>
   <si>
     <t>36,26%</t>
   </si>
   <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>62,91%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B914522-0595-428A-87DE-2BE4DB83F46D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C243E68D-288A-4D7D-900C-72FFC4728C22}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3531,10 +3525,10 @@
         <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>147</v>
@@ -3543,13 +3537,13 @@
         <v>158689</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>288</v>
@@ -3558,13 +3552,13 @@
         <v>294751</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3579,13 +3573,13 @@
         <v>577208</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>558</v>
@@ -3594,13 +3588,13 @@
         <v>583123</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1123</v>
@@ -3609,13 +3603,13 @@
         <v>1160331</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3677,13 @@
         <v>547321</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>676</v>
@@ -3698,13 +3692,13 @@
         <v>691606</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1231</v>
@@ -3713,13 +3707,13 @@
         <v>1238927</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,16 +3725,16 @@
         <v>2513</v>
       </c>
       <c r="D29" s="7">
-        <v>2579902</v>
+        <v>2579901</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2454</v>
@@ -3749,13 +3743,13 @@
         <v>2516427</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4967</v>
@@ -3764,13 +3758,13 @@
         <v>5096329</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,7 +3776,7 @@
         <v>3068</v>
       </c>
       <c r="D30" s="7">
-        <v>3127223</v>
+        <v>3127222</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3826,7 +3820,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3850,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02417784-4031-4E7C-96D3-73D3B4391F6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8884D81C-FDA1-4130-B43E-D4D5764AB16E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3867,7 +3861,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3972,39 +3966,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,39 +4011,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,39 +4056,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4105,13 @@
         <v>187559</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>210</v>
@@ -4126,13 +4120,13 @@
         <v>228543</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -4141,13 +4135,13 @@
         <v>416102</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4156,13 @@
         <v>310587</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>262</v>
@@ -4177,28 +4171,28 @@
         <v>286065</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>558</v>
       </c>
       <c r="N8" s="7">
-        <v>596652</v>
+        <v>596651</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,7 +4234,7 @@
         <v>937</v>
       </c>
       <c r="N9" s="7">
-        <v>1012754</v>
+        <v>1012753</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4266,13 +4260,13 @@
         <v>74542</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -4281,13 +4275,13 @@
         <v>98435</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -4296,13 +4290,13 @@
         <v>172976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4311,13 @@
         <v>244168</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>219</v>
@@ -4332,13 +4326,13 @@
         <v>237598</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>461</v>
@@ -4347,13 +4341,13 @@
         <v>481766</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,13 +4415,13 @@
         <v>126159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="H13" s="7">
         <v>212</v>
@@ -4436,13 +4430,13 @@
         <v>231566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>329</v>
@@ -4451,13 +4445,13 @@
         <v>357725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4472,13 +4466,13 @@
         <v>514118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>386</v>
@@ -4487,13 +4481,13 @@
         <v>414696</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>869</v>
@@ -4502,13 +4496,13 @@
         <v>928813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4576,13 +4570,13 @@
         <v>46470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -4591,13 +4585,13 @@
         <v>78338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -4606,13 +4600,13 @@
         <v>124808</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4621,13 @@
         <v>163052</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4642,13 +4636,13 @@
         <v>140365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>288</v>
@@ -4657,13 +4651,13 @@
         <v>303417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4725,13 @@
         <v>78710</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
@@ -4746,13 +4740,13 @@
         <v>105416</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>173</v>
@@ -4761,13 +4755,13 @@
         <v>184126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4776,13 @@
         <v>192431</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -4797,13 +4791,13 @@
         <v>170928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>351</v>
@@ -4812,13 +4806,13 @@
         <v>363358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4880,13 @@
         <v>171502</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -4901,13 +4895,13 @@
         <v>226883</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -4916,13 +4910,13 @@
         <v>398385</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4931,13 @@
         <v>478083</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>420</v>
@@ -4952,13 +4946,13 @@
         <v>454791</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>866</v>
@@ -4967,13 +4961,13 @@
         <v>932874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5035,13 @@
         <v>179092</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>198</v>
@@ -5056,13 +5050,13 @@
         <v>218206</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>353</v>
@@ -5071,13 +5065,13 @@
         <v>397298</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5086,13 @@
         <v>561062</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>516</v>
@@ -5107,13 +5101,13 @@
         <v>560285</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>248</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>1043</v>
@@ -5122,13 +5116,13 @@
         <v>1121347</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5190,13 @@
         <v>864034</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>1091</v>
@@ -5211,13 +5205,13 @@
         <v>1187387</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>1880</v>
@@ -5226,13 +5220,13 @@
         <v>2051421</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5241,13 @@
         <v>2463500</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>2107</v>
@@ -5262,13 +5256,13 @@
         <v>2264727</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>4436</v>
@@ -5277,13 +5271,13 @@
         <v>4728227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,7 +5333,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5363,7 +5357,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C393D95B-4775-4DA5-9A16-F7EF960E1470}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D554C652-ECC0-4890-9378-40F2221A9E76}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5374,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,13 +5481,13 @@
         <v>100385</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>121</v>
@@ -5502,13 +5496,13 @@
         <v>127629</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>216</v>
@@ -5517,13 +5511,13 @@
         <v>228014</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5532,13 @@
         <v>189410</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>156</v>
@@ -5553,13 +5547,13 @@
         <v>161074</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>323</v>
@@ -5568,13 +5562,13 @@
         <v>350484</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5636,13 @@
         <v>140542</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -5657,13 +5651,13 @@
         <v>188452</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>300</v>
@@ -5672,13 +5666,13 @@
         <v>328995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5687,13 @@
         <v>362033</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>315</v>
@@ -5708,13 +5702,13 @@
         <v>330514</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>655</v>
@@ -5723,13 +5717,13 @@
         <v>692546</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,16 +5788,16 @@
         <v>85</v>
       </c>
       <c r="D10" s="7">
-        <v>82628</v>
+        <v>82627</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -5812,13 +5806,13 @@
         <v>110992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>191</v>
@@ -5827,13 +5821,13 @@
         <v>193619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,28 +5842,28 @@
         <v>229143</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
       </c>
       <c r="I11" s="7">
-        <v>223322</v>
+        <v>223323</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>265</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -5878,13 +5872,13 @@
         <v>452466</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,7 +5890,7 @@
         <v>327</v>
       </c>
       <c r="D12" s="7">
-        <v>311771</v>
+        <v>311770</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5911,7 +5905,7 @@
         <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>334314</v>
+        <v>334315</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5952,13 +5946,13 @@
         <v>111792</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -5967,13 +5961,13 @@
         <v>143453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="M13" s="7">
         <v>236</v>
@@ -5982,13 +5976,13 @@
         <v>255245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +5997,13 @@
         <v>255263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="H14" s="7">
         <v>227</v>
@@ -6018,13 +6012,13 @@
         <v>238993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M14" s="7">
         <v>469</v>
@@ -6033,13 +6027,13 @@
         <v>494256</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6101,13 @@
         <v>84485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -6122,13 +6116,13 @@
         <v>110229</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -6137,13 +6131,13 @@
         <v>194714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6152,13 @@
         <v>125225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -6173,13 +6167,13 @@
         <v>108358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>236</v>
@@ -6188,13 +6182,13 @@
         <v>233583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,13 +6256,13 @@
         <v>58566</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>38</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -6277,13 +6271,13 @@
         <v>85279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>136</v>
@@ -6292,13 +6286,13 @@
         <v>143845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6307,13 @@
         <v>200895</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>47</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -6328,13 +6322,13 @@
         <v>184844</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>380</v>
@@ -6343,13 +6337,13 @@
         <v>385739</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6411,13 @@
         <v>194393</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="H22" s="7">
         <v>223</v>
@@ -6432,13 +6426,13 @@
         <v>239047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>333</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M22" s="7">
         <v>394</v>
@@ -6447,13 +6441,13 @@
         <v>433441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6462,13 @@
         <v>444621</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="H23" s="7">
         <v>409</v>
@@ -6483,13 +6477,13 @@
         <v>436701</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>343</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M23" s="7">
         <v>803</v>
@@ -6498,13 +6492,13 @@
         <v>881321</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,10 +6569,10 @@
         <v>76</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H25" s="7">
         <v>189</v>
@@ -6587,13 +6581,13 @@
         <v>212831</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M25" s="7">
         <v>340</v>
@@ -6602,13 +6596,13 @@
         <v>371496</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,10 +6620,10 @@
         <v>85</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H26" s="7">
         <v>549</v>
@@ -6638,13 +6632,13 @@
         <v>594231</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>1131</v>
@@ -6653,13 +6647,13 @@
         <v>1195706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>427</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6721,13 @@
         <v>931456</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>460</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="H28" s="7">
         <v>1123</v>
@@ -6742,13 +6736,13 @@
         <v>1217911</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>186</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M28" s="7">
         <v>2010</v>
@@ -6757,13 +6751,13 @@
         <v>2149368</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6772,13 @@
         <v>2408064</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>294</v>
+        <v>468</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="H29" s="7">
         <v>2171</v>
@@ -6793,13 +6787,13 @@
         <v>2278038</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>4463</v>
@@ -6808,13 +6802,13 @@
         <v>4686101</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6870,7 +6864,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6894,7 +6888,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA58DE5-7B58-41CB-B6B4-36209E98DF11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE70A899-F902-4B8A-B918-024F61DA0142}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6905,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7018,13 +7012,13 @@
         <v>34325</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -7033,13 +7027,13 @@
         <v>31953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M4" s="7">
         <v>118</v>
@@ -7048,13 +7042,13 @@
         <v>66278</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7069,13 +7063,13 @@
         <v>225973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
@@ -7084,13 +7078,13 @@
         <v>239450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M5" s="7">
         <v>751</v>
@@ -7099,10 +7093,10 @@
         <v>465422</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>492</v>
@@ -7209,7 +7203,7 @@
         <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>403</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7224,13 +7218,13 @@
         <v>315866</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H8" s="7">
         <v>412</v>
@@ -7239,13 +7233,13 @@
         <v>327543</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M8" s="7">
         <v>635</v>
@@ -7254,13 +7248,13 @@
         <v>643409</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>395</v>
+        <v>509</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7328,13 +7322,13 @@
         <v>90820</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -7343,13 +7337,13 @@
         <v>108824</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>515</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
@@ -7358,13 +7352,13 @@
         <v>199645</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7373,13 @@
         <v>231420</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="H11" s="7">
         <v>356</v>
@@ -7394,13 +7388,13 @@
         <v>264019</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>521</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>22</v>
+        <v>523</v>
       </c>
       <c r="M11" s="7">
         <v>598</v>
@@ -7409,13 +7403,13 @@
         <v>495438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7477,13 @@
         <v>70759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -7498,13 +7492,13 @@
         <v>100907</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>327</v>
       </c>
       <c r="M13" s="7">
         <v>222</v>
@@ -7513,13 +7507,13 @@
         <v>171666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7528,13 @@
         <v>251481</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>457</v>
@@ -7549,13 +7543,13 @@
         <v>327649</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>537</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>538</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -7564,13 +7558,13 @@
         <v>579130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7632,13 @@
         <v>58766</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
+        <v>540</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>544</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>153</v>
@@ -7653,13 +7647,13 @@
         <v>70095</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="M16" s="7">
         <v>235</v>
@@ -7668,13 +7662,13 @@
         <v>128861</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>549</v>
+        <v>461</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7683,13 @@
         <v>137982</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>472</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>49</v>
+        <v>547</v>
       </c>
       <c r="H17" s="7">
         <v>336</v>
@@ -7704,13 +7698,13 @@
         <v>160523</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="M17" s="7">
         <v>533</v>
@@ -7719,13 +7713,13 @@
         <v>298505</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7787,13 @@
         <v>85432</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="H19" s="7">
         <v>167</v>
@@ -7808,13 +7802,13 @@
         <v>82906</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M19" s="7">
         <v>310</v>
@@ -7823,13 +7817,13 @@
         <v>168338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>560</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>561</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7838,13 @@
         <v>191791</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H20" s="7">
         <v>293</v>
@@ -7859,13 +7853,13 @@
         <v>192716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M20" s="7">
         <v>521</v>
@@ -7874,13 +7868,13 @@
         <v>384507</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>569</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>42</v>
+        <v>570</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7942,13 @@
         <v>153126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>575</v>
+        <v>38</v>
       </c>
       <c r="H22" s="7">
         <v>342</v>
@@ -7963,13 +7957,13 @@
         <v>231754</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M22" s="7">
         <v>508</v>
@@ -7978,13 +7972,13 @@
         <v>384880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +7993,13 @@
         <v>474628</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>583</v>
+        <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -8014,13 +8008,13 @@
         <v>571563</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="M23" s="7">
         <v>1050</v>
@@ -8029,13 +8023,13 @@
         <v>1046191</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8103,13 +8097,13 @@
         <v>488627</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>719</v>
@@ -8118,13 +8112,13 @@
         <v>568142</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="M25" s="7">
         <v>1207</v>
@@ -8133,13 +8127,13 @@
         <v>1056769</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8154,13 +8148,13 @@
         <v>370801</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>600</v>
+        <v>192</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H26" s="7">
         <v>341</v>
@@ -8169,13 +8163,13 @@
         <v>296899</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M26" s="7">
         <v>615</v>
@@ -8184,13 +8178,13 @@
         <v>667700</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8258,13 +8252,13 @@
         <v>1185285</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>305</v>
+        <v>604</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="H28" s="7">
         <v>2074</v>
@@ -8273,13 +8267,13 @@
         <v>1420816</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M28" s="7">
         <v>3360</v>
@@ -8288,13 +8282,13 @@
         <v>2606102</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8309,13 +8303,13 @@
         <v>2199943</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>614</v>
       </c>
       <c r="H29" s="7">
         <v>3282</v>
@@ -8324,13 +8318,13 @@
         <v>2380362</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>617</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>619</v>
       </c>
       <c r="M29" s="7">
         <v>5372</v>
@@ -8339,13 +8333,13 @@
         <v>4580305</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>620</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>621</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8401,7 +8395,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C2A44B4-CD02-4D61-992D-10E598320B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31D0540D-598A-4927-BD95-B89632F15853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{43120902-3B10-47D3-8F52-A011F5E9E315}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC956D0D-CE1F-424E-8B82-0AC8098DD140}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>20,34%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>79,66%</t>
   </si>
   <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
   </si>
   <si>
     <t>76,79%</t>
   </si>
   <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
   </si>
   <si>
     <t>78,24%</t>
   </si>
   <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>81,83%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>23,2%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
   </si>
   <si>
     <t>32,89%</t>
   </si>
   <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
   </si>
   <si>
     <t>28,1%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
   </si>
   <si>
     <t>76,8%</t>
   </si>
   <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>67,11%</t>
   </si>
   <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
   </si>
   <si>
     <t>71,9%</t>
   </si>
   <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -197,55 +197,55 @@
     <t>13,48%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
   </si>
   <si>
     <t>16,14%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>86,52%</t>
   </si>
   <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>76,71%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
   </si>
   <si>
     <t>83,86%</t>
   </si>
   <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -254,1579 +254,1609 @@
     <t>17,67%</t>
   </si>
   <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>50,84%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>71,11%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>75,91%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>68,34%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>56,84%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>67,89%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>73,29%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
   </si>
   <si>
     <t>37,96%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>55,68%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>72,02%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>64,18%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>70,14%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>38,76%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2015 (Tasa respuesta: 98,54%)</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
-  </si>
-  <si>
-    <t>50,31%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>64,75%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>71,93%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>71,31%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>78,58%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
   </si>
   <si>
     <t>54,56%</t>
@@ -2313,7 +2343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C243E68D-288A-4D7D-900C-72FFC4728C22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90831814-DEED-4156-BEEB-17B947A24ABA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3540,10 +3570,10 @@
         <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>288</v>
@@ -3552,13 +3582,13 @@
         <v>294751</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,13 +3603,13 @@
         <v>577208</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>558</v>
@@ -3588,13 +3618,13 @@
         <v>583123</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="M26" s="7">
         <v>1123</v>
@@ -3603,13 +3633,13 @@
         <v>1160331</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3707,13 @@
         <v>547321</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>676</v>
@@ -3692,13 +3722,13 @@
         <v>691606</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>1231</v>
@@ -3707,13 +3737,13 @@
         <v>1238927</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,16 +3755,16 @@
         <v>2513</v>
       </c>
       <c r="D29" s="7">
-        <v>2579901</v>
+        <v>2579902</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>2454</v>
@@ -3743,13 +3773,13 @@
         <v>2516427</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>4967</v>
@@ -3758,13 +3788,13 @@
         <v>5096329</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,7 +3806,7 @@
         <v>3068</v>
       </c>
       <c r="D30" s="7">
-        <v>3127222</v>
+        <v>3127223</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3820,7 +3850,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8884D81C-FDA1-4130-B43E-D4D5764AB16E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EBF6E-F652-4823-A5FF-579AF05B5203}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3861,7 +3891,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3966,39 +3996,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,39 +4041,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,39 +4086,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4135,13 @@
         <v>187559</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>210</v>
@@ -4120,13 +4150,13 @@
         <v>228543</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -4135,13 +4165,13 @@
         <v>416102</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,13 +4186,13 @@
         <v>310587</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H8" s="7">
         <v>262</v>
@@ -4171,28 +4201,28 @@
         <v>286065</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M8" s="7">
         <v>558</v>
       </c>
       <c r="N8" s="7">
-        <v>596651</v>
+        <v>596652</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4234,7 +4264,7 @@
         <v>937</v>
       </c>
       <c r="N9" s="7">
-        <v>1012753</v>
+        <v>1012754</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4260,13 +4290,13 @@
         <v>74542</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -4275,13 +4305,13 @@
         <v>98435</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -4290,13 +4320,13 @@
         <v>172976</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4341,13 @@
         <v>244168</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>219</v>
@@ -4326,13 +4356,13 @@
         <v>237598</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>461</v>
@@ -4341,13 +4371,13 @@
         <v>481766</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4421,7 +4451,7 @@
         <v>220</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="H13" s="7">
         <v>212</v>
@@ -4430,13 +4460,13 @@
         <v>231566</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M13" s="7">
         <v>329</v>
@@ -4445,13 +4475,13 @@
         <v>357725</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4496,13 @@
         <v>514118</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>386</v>
@@ -4481,13 +4511,13 @@
         <v>414696</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>869</v>
@@ -4496,13 +4526,13 @@
         <v>928813</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4570,13 +4600,13 @@
         <v>46470</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -4585,13 +4615,13 @@
         <v>78338</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -4600,13 +4630,13 @@
         <v>124808</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,10 +4651,10 @@
         <v>163052</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>246</v>
@@ -4728,10 +4758,10 @@
         <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
@@ -4740,13 +4770,13 @@
         <v>105416</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>173</v>
@@ -4755,13 +4785,13 @@
         <v>184126</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4776,13 +4806,13 @@
         <v>192431</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -4791,13 +4821,13 @@
         <v>170928</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>351</v>
@@ -4806,13 +4836,13 @@
         <v>363358</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,13 +4910,13 @@
         <v>171502</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -4895,13 +4925,13 @@
         <v>226883</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -4910,13 +4940,13 @@
         <v>398385</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4931,13 +4961,13 @@
         <v>478083</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>420</v>
@@ -4946,13 +4976,13 @@
         <v>454791</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>866</v>
@@ -4961,13 +4991,13 @@
         <v>932874</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,13 +5065,13 @@
         <v>179092</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>108</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H25" s="7">
         <v>198</v>
@@ -5050,13 +5080,13 @@
         <v>218206</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>353</v>
@@ -5065,13 +5095,13 @@
         <v>397298</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5086,13 +5116,13 @@
         <v>561062</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>300</v>
+        <v>117</v>
       </c>
       <c r="H26" s="7">
         <v>516</v>
@@ -5101,13 +5131,13 @@
         <v>560285</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="M26" s="7">
         <v>1043</v>
@@ -5116,13 +5146,13 @@
         <v>1121347</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5190,13 +5220,13 @@
         <v>864034</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>1091</v>
@@ -5205,13 +5235,13 @@
         <v>1187387</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>1880</v>
@@ -5220,13 +5250,13 @@
         <v>2051421</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5271,13 @@
         <v>2463500</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>2107</v>
@@ -5256,13 +5286,13 @@
         <v>2264727</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>4436</v>
@@ -5271,13 +5301,13 @@
         <v>4728227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,7 +5363,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -5357,7 +5387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D554C652-ECC0-4890-9378-40F2221A9E76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3523796C-450D-4993-8A03-9BEA8F56AE60}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5374,7 +5404,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5481,13 +5511,13 @@
         <v>100385</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>121</v>
@@ -5496,13 +5526,13 @@
         <v>127629</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M4" s="7">
         <v>216</v>
@@ -5511,13 +5541,13 @@
         <v>228014</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5532,13 +5562,13 @@
         <v>189410</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H5" s="7">
         <v>156</v>
@@ -5547,13 +5577,13 @@
         <v>161074</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>323</v>
@@ -5562,13 +5592,13 @@
         <v>350484</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5636,13 +5666,13 @@
         <v>140542</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -5651,13 +5681,13 @@
         <v>188452</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="M7" s="7">
         <v>300</v>
@@ -5666,13 +5696,13 @@
         <v>328995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,13 +5717,13 @@
         <v>362033</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H8" s="7">
         <v>315</v>
@@ -5702,13 +5732,13 @@
         <v>330514</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="M8" s="7">
         <v>655</v>
@@ -5717,13 +5747,13 @@
         <v>692546</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,16 +5818,16 @@
         <v>85</v>
       </c>
       <c r="D10" s="7">
-        <v>82627</v>
+        <v>82628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -5806,13 +5836,13 @@
         <v>110992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>363</v>
       </c>
       <c r="M10" s="7">
         <v>191</v>
@@ -5821,13 +5851,13 @@
         <v>193619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5842,13 +5872,13 @@
         <v>229143</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
@@ -5857,13 +5887,13 @@
         <v>223323</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -5872,13 +5902,13 @@
         <v>452466</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5890,7 +5920,7 @@
         <v>327</v>
       </c>
       <c r="D12" s="7">
-        <v>311770</v>
+        <v>311771</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5946,13 +5976,13 @@
         <v>111792</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -5961,13 +5991,13 @@
         <v>143453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>236</v>
@@ -5976,13 +6006,13 @@
         <v>255245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6027,13 @@
         <v>255263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>387</v>
+        <v>279</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>227</v>
@@ -6012,13 +6042,13 @@
         <v>238993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>469</v>
@@ -6027,13 +6057,13 @@
         <v>494256</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6101,13 +6131,13 @@
         <v>84485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -6116,13 +6146,13 @@
         <v>110229</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -6131,13 +6161,13 @@
         <v>194714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6182,13 @@
         <v>125225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -6167,13 +6197,13 @@
         <v>108358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>236</v>
@@ -6182,13 +6212,13 @@
         <v>233583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6256,13 +6286,13 @@
         <v>58566</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>203</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -6271,13 +6301,13 @@
         <v>85279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>136</v>
@@ -6286,13 +6316,13 @@
         <v>143845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6337,13 @@
         <v>200895</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>211</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -6322,13 +6352,13 @@
         <v>184844</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>380</v>
@@ -6337,13 +6367,13 @@
         <v>385739</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6441,13 @@
         <v>194393</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="H22" s="7">
         <v>223</v>
@@ -6426,13 +6456,13 @@
         <v>239047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>394</v>
@@ -6441,13 +6471,13 @@
         <v>433441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6492,13 @@
         <v>444621</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H23" s="7">
         <v>409</v>
@@ -6477,13 +6507,13 @@
         <v>436701</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>343</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M23" s="7">
         <v>803</v>
@@ -6492,13 +6522,13 @@
         <v>881321</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,10 +6599,10 @@
         <v>76</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H25" s="7">
         <v>189</v>
@@ -6581,13 +6611,13 @@
         <v>212831</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M25" s="7">
         <v>340</v>
@@ -6596,13 +6626,13 @@
         <v>371496</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6620,10 +6650,10 @@
         <v>85</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H26" s="7">
         <v>549</v>
@@ -6632,13 +6662,13 @@
         <v>594231</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>457</v>
       </c>
       <c r="M26" s="7">
         <v>1131</v>
@@ -6647,10 +6677,10 @@
         <v>1195706</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>427</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>459</v>
@@ -6739,10 +6769,10 @@
         <v>463</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>186</v>
+        <v>464</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M28" s="7">
         <v>2010</v>
@@ -6751,13 +6781,13 @@
         <v>2149368</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6802,13 @@
         <v>2408064</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H29" s="7">
         <v>2171</v>
@@ -6787,13 +6817,13 @@
         <v>2278038</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>196</v>
+        <v>474</v>
       </c>
       <c r="M29" s="7">
         <v>4463</v>
@@ -6802,13 +6832,13 @@
         <v>4686101</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6864,7 +6894,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6888,7 +6918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE70A899-F902-4B8A-B918-024F61DA0142}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABA6D88-581E-4C41-9736-7B74CF23FEE5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6905,7 +6935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7012,13 +7042,13 @@
         <v>34325</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -7027,13 +7057,13 @@
         <v>31953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M4" s="7">
         <v>118</v>
@@ -7042,13 +7072,13 @@
         <v>66278</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>97</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7063,13 +7093,13 @@
         <v>225973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
@@ -7078,13 +7108,13 @@
         <v>239450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M5" s="7">
         <v>751</v>
@@ -7093,13 +7123,13 @@
         <v>465422</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>105</v>
+        <v>495</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7197,13 @@
         <v>203431</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="H7" s="7">
         <v>304</v>
@@ -7182,13 +7212,13 @@
         <v>226235</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M7" s="7">
         <v>463</v>
@@ -7197,13 +7227,13 @@
         <v>429666</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7248,13 @@
         <v>315866</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="H8" s="7">
         <v>412</v>
@@ -7233,13 +7263,13 @@
         <v>327543</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="M8" s="7">
         <v>635</v>
@@ -7248,13 +7278,13 @@
         <v>643409</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7352,13 @@
         <v>90820</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -7337,13 +7367,13 @@
         <v>108824</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
@@ -7352,13 +7382,13 @@
         <v>199645</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>516</v>
+        <v>294</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7403,13 @@
         <v>231420</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H11" s="7">
         <v>356</v>
@@ -7388,13 +7418,13 @@
         <v>264019</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="M11" s="7">
         <v>598</v>
@@ -7403,13 +7433,13 @@
         <v>495438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>524</v>
+        <v>301</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7507,13 @@
         <v>70759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -7492,13 +7522,13 @@
         <v>100907</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>327</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>222</v>
@@ -7507,13 +7537,13 @@
         <v>171666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,13 +7558,13 @@
         <v>251481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H14" s="7">
         <v>457</v>
@@ -7543,13 +7573,13 @@
         <v>327649</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>541</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -7558,13 +7588,13 @@
         <v>579130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7632,13 +7662,13 @@
         <v>58766</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>539</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>546</v>
       </c>
       <c r="H16" s="7">
         <v>153</v>
@@ -7647,13 +7677,13 @@
         <v>70095</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="M16" s="7">
         <v>235</v>
@@ -7662,13 +7692,13 @@
         <v>128861</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>461</v>
+        <v>551</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7683,13 +7713,13 @@
         <v>137982</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>546</v>
+        <v>455</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>472</v>
+        <v>553</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="H17" s="7">
         <v>336</v>
@@ -7698,13 +7728,13 @@
         <v>160523</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>533</v>
@@ -7713,13 +7743,13 @@
         <v>298505</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>470</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7817,13 @@
         <v>85432</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>167</v>
@@ -7802,13 +7832,13 @@
         <v>82906</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>310</v>
@@ -7817,13 +7847,13 @@
         <v>168338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7868,13 @@
         <v>191791</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="H20" s="7">
         <v>293</v>
@@ -7853,13 +7883,13 @@
         <v>192716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>521</v>
@@ -7868,13 +7898,13 @@
         <v>384507</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7942,10 +7972,10 @@
         <v>153126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>38</v>
@@ -7957,13 +7987,13 @@
         <v>231754</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="M22" s="7">
         <v>508</v>
@@ -7972,13 +8002,13 @@
         <v>384880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7993,13 +8023,13 @@
         <v>474628</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -8008,13 +8038,13 @@
         <v>571563</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="M23" s="7">
         <v>1050</v>
@@ -8023,13 +8053,13 @@
         <v>1046191</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8097,13 +8127,13 @@
         <v>488627</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>202</v>
+        <v>597</v>
       </c>
       <c r="H25" s="7">
         <v>719</v>
@@ -8112,13 +8142,13 @@
         <v>568142</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>591</v>
+        <v>600</v>
       </c>
       <c r="M25" s="7">
         <v>1207</v>
@@ -8127,13 +8157,13 @@
         <v>1056769</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8148,13 +8178,13 @@
         <v>370801</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>595</v>
+        <v>604</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>192</v>
+        <v>605</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="H26" s="7">
         <v>341</v>
@@ -8163,13 +8193,13 @@
         <v>296899</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="M26" s="7">
         <v>615</v>
@@ -8178,13 +8208,13 @@
         <v>667700</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8282,13 @@
         <v>1185285</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="H28" s="7">
         <v>2074</v>
@@ -8267,13 +8297,13 @@
         <v>1420816</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="M28" s="7">
         <v>3360</v>
@@ -8282,13 +8312,13 @@
         <v>2606102</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8333,13 @@
         <v>2199943</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="H29" s="7">
         <v>3282</v>
@@ -8318,13 +8348,13 @@
         <v>2380362</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="M29" s="7">
         <v>5372</v>
@@ -8333,13 +8363,13 @@
         <v>4580305</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,7 +8425,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31D0540D-598A-4927-BD95-B89632F15853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F18B0CF-1553-48D8-BD80-BC052344A7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DC956D0D-CE1F-424E-8B82-0AC8098DD140}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E3764AD-2B2E-42A2-9B51-D37718433491}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -77,508 +77,496 @@
     <t>20,34%</t>
   </si>
   <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
   </si>
   <si>
     <t>23,21%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
   </si>
   <si>
     <t>21,76%</t>
   </si>
   <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
     <t>18,17%</t>
   </si>
   <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
   </si>
   <si>
     <t>81,83%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>76,8%</t>
-  </si>
-  <si>
-    <t>72,79%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>62,89%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
   </si>
   <si>
     <t>18,79%</t>
   </si>
   <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
   </si>
   <si>
     <t>81,21%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>83,72%</t>
   </si>
   <si>
     <t>78,44%</t>
   </si>
   <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
+    <t>79,82%</t>
   </si>
   <si>
     <t>80,44%</t>
   </si>
   <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -593,1345 +581,1333 @@
     <t>37,65%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
   </si>
   <si>
     <t>41,09%</t>
   </si>
   <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
   </si>
   <si>
     <t>62,35%</t>
   </si>
   <si>
-    <t>57,93%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
   </si>
   <si>
     <t>55,59%</t>
   </si>
   <si>
-    <t>50,84%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
   </si>
   <si>
     <t>58,91%</t>
   </si>
   <si>
-    <t>55,38%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
   </si>
   <si>
     <t>29,29%</t>
   </si>
   <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>26,42%</t>
   </si>
   <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
   </si>
   <si>
     <t>76,61%</t>
   </si>
   <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>71,31%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
   </si>
   <si>
     <t>70,71%</t>
   </si>
   <si>
-    <t>65,47%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
   </si>
   <si>
     <t>73,58%</t>
   </si>
   <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
   </si>
   <si>
     <t>19,7%</t>
   </si>
   <si>
-    <t>16,6%</t>
+    <t>23,0%</t>
   </si>
   <si>
     <t>35,83%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
   </si>
   <si>
     <t>27,81%</t>
   </si>
   <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
   </si>
   <si>
     <t>80,3%</t>
   </si>
   <si>
-    <t>83,4%</t>
+    <t>77,0%</t>
   </si>
   <si>
     <t>64,17%</t>
   </si>
   <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>68,34%</t>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>72,19%</t>
   </si>
   <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
+    <t>69,71%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
   </si>
   <si>
     <t>22,18%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
   </si>
   <si>
     <t>35,82%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
   </si>
   <si>
     <t>29,15%</t>
   </si>
   <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
   </si>
   <si>
     <t>77,82%</t>
   </si>
   <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
   </si>
   <si>
     <t>64,18%</t>
   </si>
   <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
   </si>
   <si>
     <t>70,85%</t>
   </si>
   <si>
-    <t>66,06%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
   </si>
   <si>
     <t>29,03%</t>
   </si>
   <si>
-    <t>34,82%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
   </si>
   <si>
     <t>38,15%</t>
   </si>
   <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
   </si>
   <si>
     <t>33,63%</t>
   </si>
   <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>70,07%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>60,59%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>40,88%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>59,12%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>64,84%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>70,03%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>62,49%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>49,57%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>64,62%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>63,35%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>71,28%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>72,24%</t>
+  </si>
+  <si>
+    <t>82,95%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>73,57%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
     <t>29,89%</t>
   </si>
   <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
+    <t>75,61%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
   </si>
   <si>
     <t>70,11%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>70,07%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>59,19%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>60,59%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>40,88%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
-  </si>
-  <si>
-    <t>68,03%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>59,12%</t>
-  </si>
-  <si>
-    <t>67,89%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>66,8%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>70,03%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>71,44%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>64,81%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>79,49%</t>
   </si>
   <si>
     <t>56,85%</t>
   </si>
   <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>62,04%</t>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
+    <t>68,75%</t>
   </si>
   <si>
     <t>61,28%</t>
   </si>
   <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
   </si>
   <si>
     <t>43,15%</t>
   </si>
   <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
+    <t>31,25%</t>
   </si>
   <si>
     <t>38,72%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>37,09%</t>
   </si>
   <si>
     <t>37,38%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
   </si>
   <si>
     <t>36,26%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
+    <t>62,91%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
   </si>
 </sst>
 </file>
@@ -2343,7 +2319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90831814-DEED-4156-BEEB-17B947A24ABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4F8F0A-2433-492A-A621-4AE790ED9449}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3555,10 +3531,10 @@
         <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="H25" s="7">
         <v>147</v>
@@ -3567,13 +3543,13 @@
         <v>158689</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M25" s="7">
         <v>288</v>
@@ -3582,13 +3558,13 @@
         <v>294751</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3579,13 @@
         <v>577208</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>558</v>
@@ -3618,13 +3594,13 @@
         <v>583123</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>63</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1123</v>
@@ -3633,13 +3609,13 @@
         <v>1160331</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,13 +3683,13 @@
         <v>547321</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H28" s="7">
         <v>676</v>
@@ -3722,13 +3698,13 @@
         <v>691606</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>167</v>
+        <v>14</v>
       </c>
       <c r="M28" s="7">
         <v>1231</v>
@@ -3737,13 +3713,13 @@
         <v>1238927</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3734,13 @@
         <v>2579902</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>2454</v>
@@ -3773,13 +3749,13 @@
         <v>2516427</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>24</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>4967</v>
@@ -3788,13 +3764,13 @@
         <v>5096329</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3850,7 +3826,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3874,7 +3850,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EBF6E-F652-4823-A5FF-579AF05B5203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419E4DB8-A177-428B-940B-12C715623458}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3891,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3996,39 +3972,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,39 +4017,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,39 +4062,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4111,13 @@
         <v>187559</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>210</v>
@@ -4150,13 +4126,13 @@
         <v>228543</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -4165,13 +4141,13 @@
         <v>416102</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,13 +4162,13 @@
         <v>310587</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>262</v>
@@ -4201,13 +4177,13 @@
         <v>286065</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M8" s="7">
         <v>558</v>
@@ -4216,13 +4192,13 @@
         <v>596652</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4266,13 @@
         <v>74542</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -4305,13 +4281,13 @@
         <v>98435</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -4320,13 +4296,13 @@
         <v>172976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4317,13 @@
         <v>244168</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>219</v>
@@ -4356,13 +4332,13 @@
         <v>237598</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>461</v>
@@ -4371,13 +4347,13 @@
         <v>481766</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4445,13 +4421,13 @@
         <v>126159</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>220</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>212</v>
@@ -4460,13 +4436,13 @@
         <v>231566</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>329</v>
@@ -4475,13 +4451,13 @@
         <v>357725</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4472,13 @@
         <v>514118</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>386</v>
@@ -4511,13 +4487,13 @@
         <v>414696</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>869</v>
@@ -4526,13 +4502,13 @@
         <v>928813</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4576,13 @@
         <v>46470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -4615,13 +4591,13 @@
         <v>78338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -4630,13 +4606,13 @@
         <v>124808</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4627,13 @@
         <v>163052</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4666,13 +4642,13 @@
         <v>140365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>288</v>
@@ -4681,13 +4657,13 @@
         <v>303417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4731,13 @@
         <v>78710</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
@@ -4770,13 +4746,13 @@
         <v>105416</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
         <v>173</v>
@@ -4785,13 +4761,13 @@
         <v>184126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4782,13 @@
         <v>192431</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -4821,13 +4797,13 @@
         <v>170928</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M20" s="7">
         <v>351</v>
@@ -4836,13 +4812,13 @@
         <v>363358</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,13 +4886,13 @@
         <v>171502</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -4925,13 +4901,13 @@
         <v>226883</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -4940,13 +4916,13 @@
         <v>398385</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4961,13 +4937,13 @@
         <v>478083</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H23" s="7">
         <v>420</v>
@@ -4976,13 +4952,13 @@
         <v>454791</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M23" s="7">
         <v>866</v>
@@ -4991,13 +4967,13 @@
         <v>932874</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5041,13 @@
         <v>179092</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H25" s="7">
         <v>198</v>
@@ -5080,13 +5056,13 @@
         <v>218206</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M25" s="7">
         <v>353</v>
@@ -5095,13 +5071,13 @@
         <v>397298</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5092,13 @@
         <v>561062</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H26" s="7">
         <v>516</v>
@@ -5131,13 +5107,13 @@
         <v>560285</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="M26" s="7">
         <v>1043</v>
@@ -5146,13 +5122,13 @@
         <v>1121347</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5220,13 +5196,13 @@
         <v>864034</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="H28" s="7">
         <v>1091</v>
@@ -5235,13 +5211,13 @@
         <v>1187387</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>1880</v>
@@ -5250,13 +5226,13 @@
         <v>2051421</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5271,13 +5247,13 @@
         <v>2463500</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H29" s="7">
         <v>2107</v>
@@ -5286,13 +5262,13 @@
         <v>2264727</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="M29" s="7">
         <v>4436</v>
@@ -5301,13 +5277,13 @@
         <v>4728227</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5339,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5387,7 +5363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3523796C-450D-4993-8A03-9BEA8F56AE60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF743361-E08D-4025-8F03-4A055D43DBE4}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5404,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5511,13 +5487,13 @@
         <v>100385</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>202</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H4" s="7">
         <v>121</v>
@@ -5526,13 +5502,13 @@
         <v>127629</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>216</v>
@@ -5541,13 +5517,13 @@
         <v>228014</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5562,13 +5538,13 @@
         <v>189410</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>331</v>
+        <v>210</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H5" s="7">
         <v>156</v>
@@ -5577,13 +5553,13 @@
         <v>161074</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>323</v>
@@ -5592,13 +5568,13 @@
         <v>350484</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5642,13 @@
         <v>140542</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -5681,13 +5657,13 @@
         <v>188452</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>300</v>
@@ -5696,13 +5672,13 @@
         <v>328995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5693,13 @@
         <v>362033</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>315</v>
@@ -5732,13 +5708,13 @@
         <v>330514</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M8" s="7">
         <v>655</v>
@@ -5747,13 +5723,13 @@
         <v>692546</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5821,13 +5797,13 @@
         <v>82628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -5836,13 +5812,13 @@
         <v>110992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="M10" s="7">
         <v>191</v>
@@ -5851,13 +5827,13 @@
         <v>193619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5872,28 +5848,28 @@
         <v>229143</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
       </c>
       <c r="I11" s="7">
-        <v>223323</v>
+        <v>223322</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -5902,13 +5878,13 @@
         <v>452466</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,7 +5911,7 @@
         <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>334315</v>
+        <v>334314</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5976,13 +5952,13 @@
         <v>111792</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>271</v>
+        <v>372</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -5991,13 +5967,13 @@
         <v>143453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="M13" s="7">
         <v>236</v>
@@ -6006,13 +5982,13 @@
         <v>255245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6027,13 +6003,13 @@
         <v>255263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>279</v>
+        <v>381</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="H14" s="7">
         <v>227</v>
@@ -6042,13 +6018,13 @@
         <v>238993</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>469</v>
@@ -6057,13 +6033,13 @@
         <v>494256</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6131,13 +6107,13 @@
         <v>84485</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -6146,13 +6122,13 @@
         <v>110229</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -6161,13 +6137,13 @@
         <v>194714</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,13 +6158,13 @@
         <v>125225</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -6197,13 +6173,13 @@
         <v>108358</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>236</v>
@@ -6212,13 +6188,13 @@
         <v>233583</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6262,13 @@
         <v>58566</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
         <v>79</v>
@@ -6301,13 +6277,13 @@
         <v>85279</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>136</v>
@@ -6316,13 +6292,13 @@
         <v>143845</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,13 +6313,13 @@
         <v>200895</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>211</v>
+        <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -6352,13 +6328,13 @@
         <v>184844</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>380</v>
@@ -6367,13 +6343,13 @@
         <v>385739</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6441,13 +6417,13 @@
         <v>194393</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H22" s="7">
         <v>223</v>
@@ -6456,13 +6432,13 @@
         <v>239047</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M22" s="7">
         <v>394</v>
@@ -6471,13 +6447,13 @@
         <v>433441</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6492,13 +6468,13 @@
         <v>444621</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H23" s="7">
         <v>409</v>
@@ -6507,13 +6483,13 @@
         <v>436701</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M23" s="7">
         <v>803</v>
@@ -6522,13 +6498,13 @@
         <v>881321</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6599,10 +6575,10 @@
         <v>76</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H25" s="7">
         <v>189</v>
@@ -6611,13 +6587,13 @@
         <v>212831</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M25" s="7">
         <v>340</v>
@@ -6626,13 +6602,13 @@
         <v>371496</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6650,10 +6626,10 @@
         <v>85</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H26" s="7">
         <v>549</v>
@@ -6662,13 +6638,13 @@
         <v>594231</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M26" s="7">
         <v>1131</v>
@@ -6677,13 +6653,13 @@
         <v>1195706</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6751,13 +6727,13 @@
         <v>931456</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>460</v>
+        <v>287</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="H28" s="7">
         <v>1123</v>
@@ -6766,13 +6742,13 @@
         <v>1217911</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="M28" s="7">
         <v>2010</v>
@@ -6781,13 +6757,13 @@
         <v>2149368</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6802,13 +6778,13 @@
         <v>2408064</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>469</v>
+        <v>294</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H29" s="7">
         <v>2171</v>
@@ -6817,13 +6793,13 @@
         <v>2278038</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M29" s="7">
         <v>4463</v>
@@ -6832,13 +6808,13 @@
         <v>4686101</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,7 +6870,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6918,7 +6894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABA6D88-581E-4C41-9736-7B74CF23FEE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7433FF0E-EBA9-4794-80C6-31D31F38C7EC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6935,7 +6911,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7042,13 +7018,13 @@
         <v>34325</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -7057,13 +7033,13 @@
         <v>31953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M4" s="7">
         <v>118</v>
@@ -7072,13 +7048,13 @@
         <v>66278</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,13 +7069,13 @@
         <v>225973</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
@@ -7108,13 +7084,13 @@
         <v>239450</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="M5" s="7">
         <v>751</v>
@@ -7123,13 +7099,13 @@
         <v>465422</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7197,13 +7173,13 @@
         <v>203431</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H7" s="7">
         <v>304</v>
@@ -7212,13 +7188,13 @@
         <v>226235</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="M7" s="7">
         <v>463</v>
@@ -7227,13 +7203,13 @@
         <v>429666</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>505</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7248,13 +7224,13 @@
         <v>315866</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="H8" s="7">
         <v>412</v>
@@ -7263,13 +7239,13 @@
         <v>327543</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="M8" s="7">
         <v>635</v>
@@ -7278,13 +7254,13 @@
         <v>643409</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>513</v>
+        <v>395</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,13 +7328,13 @@
         <v>90820</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
@@ -7367,13 +7343,13 @@
         <v>108824</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>519</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>513</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
@@ -7382,13 +7358,13 @@
         <v>199645</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>294</v>
+        <v>514</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7403,13 +7379,13 @@
         <v>231420</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="H11" s="7">
         <v>356</v>
@@ -7418,13 +7394,13 @@
         <v>264019</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>521</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>526</v>
+        <v>22</v>
       </c>
       <c r="M11" s="7">
         <v>598</v>
@@ -7433,13 +7409,13 @@
         <v>495438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>301</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,13 +7483,13 @@
         <v>70759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
@@ -7522,13 +7498,13 @@
         <v>100907</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>222</v>
@@ -7537,13 +7513,13 @@
         <v>171666</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,13 +7534,13 @@
         <v>251481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H14" s="7">
         <v>457</v>
@@ -7573,13 +7549,13 @@
         <v>327649</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
@@ -7588,13 +7564,13 @@
         <v>579130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>367</v>
+        <v>541</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7662,13 +7638,13 @@
         <v>58766</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>448</v>
+        <v>543</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>545</v>
+        <v>39</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="H16" s="7">
         <v>153</v>
@@ -7677,13 +7653,13 @@
         <v>70095</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>549</v>
       </c>
       <c r="M16" s="7">
         <v>235</v>
@@ -7692,13 +7668,13 @@
         <v>128861</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7713,13 +7689,13 @@
         <v>137982</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>455</v>
+        <v>551</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>554</v>
+        <v>49</v>
       </c>
       <c r="H17" s="7">
         <v>336</v>
@@ -7728,13 +7704,13 @@
         <v>160523</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>555</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>556</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>533</v>
@@ -7743,13 +7719,13 @@
         <v>298505</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7817,13 +7793,13 @@
         <v>85432</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>563</v>
       </c>
       <c r="H19" s="7">
         <v>167</v>
@@ -7832,13 +7808,13 @@
         <v>82906</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>310</v>
@@ -7847,13 +7823,13 @@
         <v>168338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>568</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>569</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7868,13 +7844,13 @@
         <v>191791</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="H20" s="7">
         <v>293</v>
@@ -7883,13 +7859,13 @@
         <v>192716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="M20" s="7">
         <v>521</v>
@@ -7898,13 +7874,13 @@
         <v>384507</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>577</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>578</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7972,13 +7948,13 @@
         <v>153126</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>38</v>
+        <v>575</v>
       </c>
       <c r="H22" s="7">
         <v>342</v>
@@ -7987,13 +7963,13 @@
         <v>231754</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="M22" s="7">
         <v>508</v>
@@ -8002,13 +7978,13 @@
         <v>384880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8023,13 +7999,13 @@
         <v>474628</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>583</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -8038,13 +8014,13 @@
         <v>571563</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="M23" s="7">
         <v>1050</v>
@@ -8053,13 +8029,13 @@
         <v>1046191</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8127,13 +8103,13 @@
         <v>488627</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="H25" s="7">
         <v>719</v>
@@ -8142,13 +8118,13 @@
         <v>568142</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="M25" s="7">
         <v>1207</v>
@@ -8157,13 +8133,13 @@
         <v>1056769</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8178,13 +8154,13 @@
         <v>370801</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H26" s="7">
         <v>341</v>
@@ -8193,13 +8169,13 @@
         <v>296899</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="M26" s="7">
         <v>615</v>
@@ -8208,13 +8184,13 @@
         <v>667700</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8282,13 +8258,13 @@
         <v>1185285</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>614</v>
+        <v>305</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="H28" s="7">
         <v>2074</v>
@@ -8297,13 +8273,13 @@
         <v>1420816</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="M28" s="7">
         <v>3360</v>
@@ -8312,13 +8288,13 @@
         <v>2606102</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8333,13 +8309,13 @@
         <v>2199943</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>624</v>
+        <v>315</v>
       </c>
       <c r="H29" s="7">
         <v>3282</v>
@@ -8348,13 +8324,13 @@
         <v>2380362</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="M29" s="7">
         <v>5372</v>
@@ -8363,13 +8339,13 @@
         <v>4580305</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8425,7 +8401,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P35-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F18B0CF-1553-48D8-BD80-BC052344A7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E88471D-FD5B-4DE1-A616-D5DB37EEB37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6E3764AD-2B2E-42A2-9B51-D37718433491}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4A1A299D-56EC-4D99-91D3-F10653D11411}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="632">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -575,7 +575,58 @@
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>59,99%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
   </si>
   <si>
     <t>37,65%</t>
@@ -686,52 +737,52 @@
     <t>76,96%</t>
   </si>
   <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>69,71%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
   </si>
   <si>
     <t>22,18%</t>
@@ -1466,448 +1517,424 @@
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
   </si>
   <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>44,69%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>55,31%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>63,35%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>82,95%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>73,57%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>67,66%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>69,55%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>75,61%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>65,68%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
 </sst>
 </file>
@@ -2319,7 +2346,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4F8F0A-2433-492A-A621-4AE790ED9449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E679C7-E8E1-45D6-AF57-C639F07B7FB5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3850,7 +3877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{419E4DB8-A177-428B-940B-12C715623458}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D203C83A-BD16-4532-97C6-6B3F8F40473F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3968,43 +3995,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D4" s="7">
+        <v>67862</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="I4" s="7">
+        <v>113146</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="N4" s="7">
+        <v>181008</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,43 +4046,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>205</v>
+      </c>
+      <c r="D5" s="7">
+        <v>214387</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="I5" s="7">
+        <v>169627</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>357</v>
+      </c>
+      <c r="N5" s="7">
+        <v>384014</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4058,43 +4097,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>271</v>
+      </c>
+      <c r="D6" s="7">
+        <v>282249</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>252</v>
+      </c>
+      <c r="I6" s="7">
+        <v>282773</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>523</v>
+      </c>
+      <c r="N6" s="7">
+        <v>565022</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4156,13 @@
         <v>187559</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="H7" s="7">
         <v>210</v>
@@ -4126,13 +4171,13 @@
         <v>228543</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -4141,13 +4186,13 @@
         <v>416102</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4162,13 +4207,13 @@
         <v>310587</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="H8" s="7">
         <v>262</v>
@@ -4177,28 +4222,28 @@
         <v>286065</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="M8" s="7">
         <v>558</v>
       </c>
       <c r="N8" s="7">
-        <v>596652</v>
+        <v>596651</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,7 +4285,7 @@
         <v>937</v>
       </c>
       <c r="N9" s="7">
-        <v>1012754</v>
+        <v>1012753</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4266,13 +4311,13 @@
         <v>74542</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -4281,13 +4326,13 @@
         <v>98435</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M10" s="7">
         <v>165</v>
@@ -4296,13 +4341,13 @@
         <v>172976</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4362,13 @@
         <v>244168</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="H11" s="7">
         <v>219</v>
@@ -4332,13 +4377,13 @@
         <v>237598</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="M11" s="7">
         <v>461</v>
@@ -4347,13 +4392,13 @@
         <v>481766</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,49 +4460,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="D13" s="7">
-        <v>126159</v>
+        <v>58297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>232</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7">
-        <v>212</v>
+        <v>112</v>
       </c>
       <c r="I13" s="7">
-        <v>231566</v>
+        <v>118421</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="M13" s="7">
-        <v>329</v>
+        <v>163</v>
       </c>
       <c r="N13" s="7">
-        <v>357725</v>
+        <v>176717</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,49 +4511,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>483</v>
+        <v>278</v>
       </c>
       <c r="D14" s="7">
-        <v>514118</v>
+        <v>299731</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>170</v>
+        <v>241</v>
       </c>
       <c r="H14" s="7">
-        <v>386</v>
+        <v>234</v>
       </c>
       <c r="I14" s="7">
-        <v>414696</v>
+        <v>245068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="M14" s="7">
-        <v>869</v>
+        <v>512</v>
       </c>
       <c r="N14" s="7">
-        <v>928813</v>
+        <v>544800</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,10 +4562,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>600</v>
+        <v>329</v>
       </c>
       <c r="D15" s="7">
-        <v>640277</v>
+        <v>358028</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4532,10 +4577,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>598</v>
+        <v>346</v>
       </c>
       <c r="I15" s="7">
-        <v>646262</v>
+        <v>363489</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4547,10 +4592,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1198</v>
+        <v>675</v>
       </c>
       <c r="N15" s="7">
-        <v>1286538</v>
+        <v>721517</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4576,13 +4621,13 @@
         <v>46470</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>73</v>
@@ -4591,13 +4636,13 @@
         <v>78338</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -4606,13 +4651,13 @@
         <v>124808</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4672,13 @@
         <v>163052</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="H17" s="7">
         <v>138</v>
@@ -4642,13 +4687,13 @@
         <v>140365</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="M17" s="7">
         <v>288</v>
@@ -4657,13 +4702,13 @@
         <v>303417</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4776,13 @@
         <v>78710</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
@@ -4746,13 +4791,13 @@
         <v>105416</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="M19" s="7">
         <v>173</v>
@@ -4761,13 +4806,13 @@
         <v>184126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4827,13 @@
         <v>192431</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>166</v>
@@ -4797,13 +4842,13 @@
         <v>170928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="M20" s="7">
         <v>351</v>
@@ -4812,13 +4857,13 @@
         <v>363358</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4886,13 +4931,13 @@
         <v>171502</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -4901,13 +4946,13 @@
         <v>226883</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>365</v>
@@ -4916,13 +4961,13 @@
         <v>398385</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4937,13 +4982,13 @@
         <v>478083</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="H23" s="7">
         <v>420</v>
@@ -4952,13 +4997,13 @@
         <v>454791</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="M23" s="7">
         <v>866</v>
@@ -4967,13 +5012,13 @@
         <v>932874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5086,13 @@
         <v>179092</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>198</v>
@@ -5056,13 +5101,13 @@
         <v>218206</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="M25" s="7">
         <v>353</v>
@@ -5071,13 +5116,13 @@
         <v>397298</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5137,13 @@
         <v>561062</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="H26" s="7">
         <v>516</v>
@@ -5107,13 +5152,13 @@
         <v>560285</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="M26" s="7">
         <v>1043</v>
@@ -5122,13 +5167,13 @@
         <v>1121347</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5241,13 @@
         <v>864034</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="H28" s="7">
         <v>1091</v>
@@ -5211,13 +5256,13 @@
         <v>1187387</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M28" s="7">
         <v>1880</v>
@@ -5226,13 +5271,13 @@
         <v>2051421</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5292,13 @@
         <v>2463500</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="H29" s="7">
         <v>2107</v>
@@ -5262,13 +5307,13 @@
         <v>2264727</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="M29" s="7">
         <v>4436</v>
@@ -5277,13 +5322,13 @@
         <v>4728227</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,7 +5408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF743361-E08D-4025-8F03-4A055D43DBE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDBC9CDA-27E2-46D9-9CA1-78B0C1574D6D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5380,7 +5425,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5487,13 +5532,13 @@
         <v>100385</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="H4" s="7">
         <v>121</v>
@@ -5502,13 +5547,13 @@
         <v>127629</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>216</v>
@@ -5517,13 +5562,13 @@
         <v>228014</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5583,13 @@
         <v>189410</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>156</v>
@@ -5553,13 +5598,13 @@
         <v>161074</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>323</v>
@@ -5568,13 +5613,13 @@
         <v>350484</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5642,13 +5687,13 @@
         <v>140542</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="H7" s="7">
         <v>165</v>
@@ -5657,13 +5702,13 @@
         <v>188452</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="M7" s="7">
         <v>300</v>
@@ -5672,13 +5717,13 @@
         <v>328995</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5693,13 +5738,13 @@
         <v>362033</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="H8" s="7">
         <v>315</v>
@@ -5708,13 +5753,13 @@
         <v>330514</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="M8" s="7">
         <v>655</v>
@@ -5723,13 +5768,13 @@
         <v>692546</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5842,13 @@
         <v>82628</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="H10" s="7">
         <v>106</v>
@@ -5812,13 +5857,13 @@
         <v>110992</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="M10" s="7">
         <v>191</v>
@@ -5827,13 +5872,13 @@
         <v>193619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,28 +5893,28 @@
         <v>229143</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="H11" s="7">
         <v>224</v>
       </c>
       <c r="I11" s="7">
-        <v>223322</v>
+        <v>223323</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="M11" s="7">
         <v>466</v>
@@ -5878,13 +5923,13 @@
         <v>452466</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5911,7 +5956,7 @@
         <v>330</v>
       </c>
       <c r="I12" s="7">
-        <v>334314</v>
+        <v>334315</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5952,13 +5997,13 @@
         <v>111792</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="H13" s="7">
         <v>127</v>
@@ -5967,13 +6012,13 @@
         <v>143453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>236</v>
@@ -5982,13 +6027,13 @@
         <v>255245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6003,13 +6048,13 @@
         <v>255263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>227</v>
@@ -6018,13 +6063,13 @@
         <v>238993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>469</v>
@@ -6033,13 +6078,13 @@
         <v>494256</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6107,13 +6152,13 @@
         <v>84485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
         <v>113</v>
@@ -6122,13 +6167,13 @@
         <v>110229</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -6137,13 +6182,13 @@
         <v>194714</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6158,13 +6203,13 @@
         <v>125225</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
         <v>110</v>
@@ -6173,13 +6218,13 @@
         <v>108358</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
         <v>236</v>
@@ -6188,13 +6233,13 @@
         <v>233583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6262,10 +6307,10 @@
         <v>58566</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>38</v>
@@ -6277,13 +6322,13 @@
         <v>85279</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>427</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
         <v>136</v>
@@ -6292,13 +6337,13 @@
         <v>143845</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6313,13 +6358,13 @@
         <v>200895</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="H20" s="7">
         <v>181</v>
@@ -6328,13 +6373,13 @@
         <v>184844</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="M20" s="7">
         <v>380</v>
@@ -6343,13 +6388,13 @@
         <v>385739</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6462,13 @@
         <v>194393</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>424</v>
+        <v>441</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>426</v>
+        <v>443</v>
       </c>
       <c r="H22" s="7">
         <v>223</v>
@@ -6432,13 +6477,13 @@
         <v>239047</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>427</v>
+        <v>444</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>446</v>
       </c>
       <c r="M22" s="7">
         <v>394</v>
@@ -6447,13 +6492,13 @@
         <v>433441</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>430</v>
+        <v>447</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>431</v>
+        <v>448</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>432</v>
+        <v>449</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6513,13 @@
         <v>444621</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>433</v>
+        <v>450</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>435</v>
+        <v>452</v>
       </c>
       <c r="H23" s="7">
         <v>409</v>
@@ -6483,13 +6528,13 @@
         <v>436701</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>438</v>
+        <v>455</v>
       </c>
       <c r="M23" s="7">
         <v>803</v>
@@ -6498,13 +6543,13 @@
         <v>881321</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>439</v>
+        <v>456</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6575,10 +6620,10 @@
         <v>76</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="H25" s="7">
         <v>189</v>
@@ -6587,13 +6632,13 @@
         <v>212831</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
       <c r="M25" s="7">
         <v>340</v>
@@ -6602,13 +6647,13 @@
         <v>371496</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6626,10 +6671,10 @@
         <v>85</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>468</v>
       </c>
       <c r="H26" s="7">
         <v>549</v>
@@ -6638,13 +6683,13 @@
         <v>594231</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>469</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="M26" s="7">
         <v>1131</v>
@@ -6653,13 +6698,13 @@
         <v>1195706</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>472</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6772,13 @@
         <v>931456</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>459</v>
+        <v>476</v>
       </c>
       <c r="H28" s="7">
         <v>1123</v>
@@ -6742,13 +6787,13 @@
         <v>1217911</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>460</v>
+        <v>477</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>462</v>
+        <v>479</v>
       </c>
       <c r="M28" s="7">
         <v>2010</v>
@@ -6757,13 +6802,13 @@
         <v>2149368</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>463</v>
+        <v>480</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>464</v>
+        <v>481</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6823,13 @@
         <v>2408064</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>466</v>
+        <v>483</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>484</v>
       </c>
       <c r="H29" s="7">
         <v>2171</v>
@@ -6793,13 +6838,13 @@
         <v>2278038</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="M29" s="7">
         <v>4463</v>
@@ -6808,13 +6853,13 @@
         <v>4686101</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>473</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6894,7 +6939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7433FF0E-EBA9-4794-80C6-31D31F38C7EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF1057F-F3C3-4118-9D4A-2294829DC164}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6911,7 +6956,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7015,46 +7060,46 @@
         <v>50</v>
       </c>
       <c r="D4" s="7">
-        <v>34325</v>
+        <v>38484</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>477</v>
+        <v>494</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
       </c>
       <c r="I4" s="7">
-        <v>31953</v>
+        <v>33134</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>479</v>
+        <v>496</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>480</v>
+        <v>71</v>
       </c>
       <c r="M4" s="7">
         <v>118</v>
       </c>
       <c r="N4" s="7">
-        <v>66278</v>
+        <v>71618</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>483</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,46 +7111,46 @@
         <v>281</v>
       </c>
       <c r="D5" s="7">
-        <v>225973</v>
+        <v>272959</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>484</v>
+        <v>500</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>485</v>
+        <v>501</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="H5" s="7">
         <v>470</v>
       </c>
       <c r="I5" s="7">
-        <v>239450</v>
+        <v>256501</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>488</v>
+        <v>81</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="M5" s="7">
         <v>751</v>
       </c>
       <c r="N5" s="7">
-        <v>465422</v>
+        <v>529459</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7117,7 +7162,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7132,7 +7177,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7147,7 +7192,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7170,46 +7215,46 @@
         <v>159</v>
       </c>
       <c r="D7" s="7">
-        <v>203431</v>
+        <v>201308</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="H7" s="7">
         <v>304</v>
       </c>
       <c r="I7" s="7">
-        <v>226235</v>
+        <v>210540</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="M7" s="7">
         <v>463</v>
       </c>
       <c r="N7" s="7">
-        <v>429666</v>
+        <v>411848</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7221,46 +7266,46 @@
         <v>223</v>
       </c>
       <c r="D8" s="7">
-        <v>315866</v>
+        <v>317082</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="H8" s="7">
         <v>412</v>
       </c>
       <c r="I8" s="7">
-        <v>327543</v>
+        <v>303698</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="M8" s="7">
         <v>635</v>
       </c>
       <c r="N8" s="7">
-        <v>643409</v>
+        <v>620780</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,7 +7317,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7287,7 +7332,7 @@
         <v>716</v>
       </c>
       <c r="I9" s="7">
-        <v>553778</v>
+        <v>514238</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7302,7 +7347,7 @@
         <v>1098</v>
       </c>
       <c r="N9" s="7">
-        <v>1073075</v>
+        <v>1032628</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7325,46 +7370,46 @@
         <v>118</v>
       </c>
       <c r="D10" s="7">
-        <v>90820</v>
+        <v>87571</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>525</v>
       </c>
       <c r="H10" s="7">
         <v>179</v>
       </c>
       <c r="I10" s="7">
-        <v>108824</v>
+        <v>101230</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>13</v>
+        <v>526</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>513</v>
+        <v>527</v>
       </c>
       <c r="M10" s="7">
         <v>297</v>
       </c>
       <c r="N10" s="7">
-        <v>199645</v>
+        <v>188801</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>529</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>516</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7376,46 +7421,46 @@
         <v>242</v>
       </c>
       <c r="D11" s="7">
-        <v>231420</v>
+        <v>228479</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>517</v>
+        <v>531</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>519</v>
+        <v>295</v>
       </c>
       <c r="H11" s="7">
         <v>356</v>
       </c>
       <c r="I11" s="7">
-        <v>264019</v>
+        <v>247493</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>520</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>22</v>
+        <v>534</v>
       </c>
       <c r="M11" s="7">
         <v>598</v>
       </c>
       <c r="N11" s="7">
-        <v>495438</v>
+        <v>475973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>536</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7427,7 +7472,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7442,7 +7487,7 @@
         <v>535</v>
       </c>
       <c r="I12" s="7">
-        <v>372843</v>
+        <v>348723</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7457,7 +7502,7 @@
         <v>895</v>
       </c>
       <c r="N12" s="7">
-        <v>695083</v>
+        <v>664774</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7480,46 +7525,46 @@
         <v>80</v>
       </c>
       <c r="D13" s="7">
-        <v>70759</v>
+        <v>67015</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>538</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>142</v>
       </c>
       <c r="I13" s="7">
-        <v>100907</v>
+        <v>92557</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="M13" s="7">
         <v>222</v>
       </c>
       <c r="N13" s="7">
-        <v>171666</v>
+        <v>159571</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7531,46 +7576,46 @@
         <v>212</v>
       </c>
       <c r="D14" s="7">
-        <v>251481</v>
+        <v>245542</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>535</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="H14" s="7">
         <v>457</v>
       </c>
       <c r="I14" s="7">
-        <v>327649</v>
+        <v>383161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="M14" s="7">
         <v>669</v>
       </c>
       <c r="N14" s="7">
-        <v>579130</v>
+        <v>628703</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7582,7 +7627,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7597,7 +7642,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7612,7 +7657,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7635,46 +7680,46 @@
         <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>58766</v>
+        <v>53225</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>39</v>
+        <v>553</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="H16" s="7">
         <v>153</v>
       </c>
       <c r="I16" s="7">
-        <v>70095</v>
+        <v>62732</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>546</v>
+        <v>318</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="M16" s="7">
         <v>235</v>
       </c>
       <c r="N16" s="7">
-        <v>128861</v>
+        <v>115957</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7686,46 +7731,46 @@
         <v>197</v>
       </c>
       <c r="D17" s="7">
-        <v>137982</v>
+        <v>125517</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>49</v>
+        <v>562</v>
       </c>
       <c r="H17" s="7">
         <v>336</v>
       </c>
       <c r="I17" s="7">
-        <v>160523</v>
+        <v>144735</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>555</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
         <v>533</v>
       </c>
       <c r="N17" s="7">
-        <v>298505</v>
+        <v>270252</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>556</v>
+        <v>565</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>558</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,7 +7782,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7752,7 +7797,7 @@
         <v>489</v>
       </c>
       <c r="I18" s="7">
-        <v>230618</v>
+        <v>207467</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7767,7 +7812,7 @@
         <v>768</v>
       </c>
       <c r="N18" s="7">
-        <v>427366</v>
+        <v>386209</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7790,46 +7835,46 @@
         <v>143</v>
       </c>
       <c r="D19" s="7">
-        <v>85432</v>
+        <v>81566</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>559</v>
+        <v>568</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>560</v>
+        <v>569</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="H19" s="7">
         <v>167</v>
       </c>
       <c r="I19" s="7">
-        <v>82906</v>
+        <v>77248</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>562</v>
+        <v>571</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>564</v>
+        <v>573</v>
       </c>
       <c r="M19" s="7">
         <v>310</v>
       </c>
       <c r="N19" s="7">
-        <v>168338</v>
+        <v>158814</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>575</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>255</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7841,46 +7886,46 @@
         <v>228</v>
       </c>
       <c r="D20" s="7">
-        <v>191791</v>
+        <v>188070</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="H20" s="7">
         <v>293</v>
       </c>
       <c r="I20" s="7">
-        <v>192716</v>
+        <v>179808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="M20" s="7">
         <v>521</v>
       </c>
       <c r="N20" s="7">
-        <v>384507</v>
+        <v>367878</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>42</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7892,7 +7937,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7907,7 +7952,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7922,7 +7967,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7945,46 +7990,46 @@
         <v>166</v>
       </c>
       <c r="D22" s="7">
-        <v>153126</v>
+        <v>147385</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>575</v>
+        <v>34</v>
       </c>
       <c r="H22" s="7">
         <v>342</v>
       </c>
       <c r="I22" s="7">
-        <v>231754</v>
+        <v>215135</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="M22" s="7">
         <v>508</v>
       </c>
       <c r="N22" s="7">
-        <v>384880</v>
+        <v>362520</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7996,46 +8041,46 @@
         <v>433</v>
       </c>
       <c r="D23" s="7">
-        <v>474628</v>
+        <v>476894</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>583</v>
+        <v>42</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
       </c>
       <c r="I23" s="7">
-        <v>571563</v>
+        <v>633298</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="M23" s="7">
         <v>1050</v>
       </c>
       <c r="N23" s="7">
-        <v>1046191</v>
+        <v>1110192</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8047,7 +8092,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8062,7 +8107,7 @@
         <v>959</v>
       </c>
       <c r="I24" s="7">
-        <v>803317</v>
+        <v>848433</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8077,7 +8122,7 @@
         <v>1558</v>
       </c>
       <c r="N24" s="7">
-        <v>1431071</v>
+        <v>1472712</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8100,46 +8145,46 @@
         <v>488</v>
       </c>
       <c r="D25" s="7">
-        <v>488627</v>
+        <v>415108</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>591</v>
+        <v>513</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="H25" s="7">
         <v>719</v>
       </c>
       <c r="I25" s="7">
-        <v>568142</v>
+        <v>471058</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>593</v>
+        <v>213</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="M25" s="7">
         <v>1207</v>
       </c>
       <c r="N25" s="7">
-        <v>1056769</v>
+        <v>886167</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8151,46 +8196,46 @@
         <v>274</v>
       </c>
       <c r="D26" s="7">
-        <v>370801</v>
+        <v>513612</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>599</v>
+        <v>520</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="H26" s="7">
         <v>341</v>
       </c>
       <c r="I26" s="7">
-        <v>296899</v>
+        <v>243791</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>600</v>
+        <v>203</v>
       </c>
       <c r="M26" s="7">
         <v>615</v>
       </c>
       <c r="N26" s="7">
-        <v>667700</v>
+        <v>757403</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8202,7 +8247,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8217,7 +8262,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865041</v>
+        <v>714849</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8232,7 +8277,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724469</v>
+        <v>1643570</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8255,46 +8300,46 @@
         <v>1286</v>
       </c>
       <c r="D28" s="7">
-        <v>1185285</v>
+        <v>1091663</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>305</v>
+        <v>615</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="H28" s="7">
         <v>2074</v>
       </c>
       <c r="I28" s="7">
-        <v>1420816</v>
+        <v>1263634</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="M28" s="7">
         <v>3360</v>
       </c>
       <c r="N28" s="7">
-        <v>2606102</v>
+        <v>2355296</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8306,46 +8351,46 @@
         <v>2090</v>
       </c>
       <c r="D29" s="7">
-        <v>2199943</v>
+        <v>2368154</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>315</v>
+        <v>625</v>
       </c>
       <c r="H29" s="7">
         <v>3282</v>
       </c>
       <c r="I29" s="7">
-        <v>2380362</v>
+        <v>2392485</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>618</v>
+        <v>627</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="M29" s="7">
         <v>5372</v>
       </c>
       <c r="N29" s="7">
-        <v>4580305</v>
+        <v>4760640</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8357,7 +8402,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8372,7 +8417,7 @@
         <v>5356</v>
       </c>
       <c r="I30" s="7">
-        <v>3801178</v>
+        <v>3656119</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8387,7 +8432,7 @@
         <v>8732</v>
       </c>
       <c r="N30" s="7">
-        <v>7186407</v>
+        <v>7115936</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
